--- a/src/main/resources/order_template.xlsx
+++ b/src/main/resources/order_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerunjie/IdeaProjects/nztrip/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>订单编号</t>
   </si>
@@ -90,12 +87,22 @@
   <si>
     <t>代理商订单号</t>
   </si>
+  <si>
+    <t>退款金额</t>
+    <rPh sb="0" eb="1">
+      <t>tui'kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,6 +112,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="SimSun"/>
     </font>
   </fonts>
@@ -152,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -506,10 +517,12 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -10386,6 +10399,7 @@
       <c r="J988" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11402,6 +11416,7 @@
     <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12418,6 +12433,7 @@
     <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>